--- a/KS4/Year-11-12.xlsx
+++ b/KS4/Year-11-12.xlsx
@@ -8,16 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Curriculum Map (KS4)" sheetId="4" r:id="rId1"/>
-    <sheet name="KS4 (GCSE Units)" sheetId="9" r:id="rId2"/>
+    <sheet name="KS4-11-12" sheetId="9" r:id="rId2"/>
     <sheet name="KS1 (1)" sheetId="11" state="hidden" r:id="rId3"/>
     <sheet name="KS2 (1)" sheetId="12" state="hidden" r:id="rId4"/>
     <sheet name="KS3 (1)" sheetId="13" state="hidden" r:id="rId5"/>
     <sheet name="KS4" sheetId="14" state="hidden" r:id="rId6"/>
     <sheet name="GCSE" sheetId="15" state="hidden" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'KS4 (GCSE Units)'!$B$1:$M$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'KS4-11-12'!$B$1:$M$35</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5572" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5572" uniqueCount="1546">
   <si>
     <t>Teach Computing Curriculum Map</t>
   </si>
@@ -5105,30 +5104,6 @@
     <t>Twelve</t>
   </si>
   <si>
-    <t>Working with Data files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working with Dictionaries </t>
-  </si>
-  <si>
-    <t>Working with Lists</t>
-  </si>
-  <si>
-    <t>Working with Strings</t>
-  </si>
-  <si>
-    <t>Working with Subroutines</t>
-  </si>
-  <si>
-    <t>Working with Iteration</t>
-  </si>
-  <si>
-    <t>Working with Selection</t>
-  </si>
-  <si>
-    <t>Working with Sequence</t>
-  </si>
-  <si>
     <t>Create a class                                                                                                                                                                        Create a method on a class                                                                                                                                                    Define the use of a 'self' parameter in object-oriented Python or Javascript                                                                                             Create a subclass in a program</t>
   </si>
   <si>
@@ -5142,6 +5117,33 @@
   </si>
   <si>
     <t xml:space="preserve"> VSCode (IDE), Repl.it (Web Based),</t>
+  </si>
+  <si>
+    <t>Eleven-Twelve</t>
+  </si>
+  <si>
+    <t>Programming - Working with Sequence</t>
+  </si>
+  <si>
+    <t>Programming - Working with Selection</t>
+  </si>
+  <si>
+    <t>Programming - Working with Iteration</t>
+  </si>
+  <si>
+    <t>Programming - Working with Subroutines</t>
+  </si>
+  <si>
+    <t>Programming - Working with Strings</t>
+  </si>
+  <si>
+    <t>Programming - Working with Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming - Working with Dictionaries </t>
+  </si>
+  <si>
+    <t>Programming - Working with Data files</t>
   </si>
 </sst>
 </file>
@@ -5530,26 +5532,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5575,219 +5557,31 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6230,10 +6024,10 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="55" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2"/>
@@ -6246,10 +6040,10 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="43"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -6260,33 +6054,33 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="43"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="46" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
+      <c r="J4" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="43"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5" t="s">
         <v>4</v>
@@ -6300,12 +6094,12 @@
     </row>
     <row r="6" spans="1:12" ht="41.25" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="2"/>
       <c r="G6" s="1">
         <v>4.0999999999999996</v>
@@ -6326,10 +6120,10 @@
     </row>
     <row r="7" spans="1:12" ht="41.25" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
         <v>4.2</v>
@@ -6350,10 +6144,10 @@
     </row>
     <row r="8" spans="1:12" ht="41.25" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
         <v>4.3</v>
@@ -6374,10 +6168,10 @@
     </row>
     <row r="9" spans="1:12" ht="41.25" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="8"/>
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
@@ -6394,10 +6188,10 @@
     </row>
     <row r="10" spans="1:12" ht="41.25" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="8"/>
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
@@ -6414,10 +6208,10 @@
     </row>
     <row r="11" spans="1:12" ht="41.25" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="8"/>
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
@@ -6434,10 +6228,10 @@
     </row>
     <row r="12" spans="1:12" ht="41.25" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -6454,10 +6248,10 @@
     </row>
     <row r="13" spans="1:12" ht="41.25" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -6474,12 +6268,12 @@
     </row>
     <row r="14" spans="1:12" ht="41.25" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
@@ -6496,10 +6290,10 @@
     </row>
     <row r="15" spans="1:12" ht="41.25" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
@@ -6516,10 +6310,10 @@
     </row>
     <row r="16" spans="1:12" ht="41.25" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
@@ -7537,9 +7331,9 @@
   </sheetPr>
   <dimension ref="A1:M538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -7572,44 +7366,44 @@
       <c r="L1" s="29"/>
       <c r="M1" s="26"/>
     </row>
-    <row r="2" spans="1:13" s="53" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:13" s="43" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>1408</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>1409</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="39" t="s">
         <v>1410</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="40" t="s">
         <v>1412</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="40" t="s">
         <v>1413</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="40" t="s">
         <v>1414</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="40" t="s">
         <v>1415</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="44" t="s">
         <v>1416</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="42" t="s">
         <v>1417</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="42" t="s">
         <v>1418</v>
       </c>
-      <c r="M2" s="51"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="45" customHeight="1">
       <c r="A3" s="19">
@@ -7639,8 +7433,8 @@
       <c r="I3" s="20" t="s">
         <v>1066</v>
       </c>
-      <c r="J3" s="55" t="s">
-        <v>1544</v>
+      <c r="J3" s="45" t="s">
+        <v>1536</v>
       </c>
       <c r="K3" s="30" t="s">
         <v>1423</v>
@@ -7655,7 +7449,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>1411</v>
@@ -7678,8 +7472,8 @@
       <c r="I4" s="20" t="s">
         <v>1069</v>
       </c>
-      <c r="J4" s="55" t="s">
-        <v>1544</v>
+      <c r="J4" s="45" t="s">
+        <v>1536</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>1425</v>
@@ -7694,7 +7488,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>1411</v>
@@ -7717,8 +7511,8 @@
       <c r="I5" s="20" t="s">
         <v>1071</v>
       </c>
-      <c r="J5" s="55" t="s">
-        <v>1544</v>
+      <c r="J5" s="45" t="s">
+        <v>1536</v>
       </c>
       <c r="K5" s="30" t="s">
         <v>1427</v>
@@ -7733,7 +7527,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>1411</v>
@@ -7756,8 +7550,8 @@
       <c r="I6" s="20" t="s">
         <v>1419</v>
       </c>
-      <c r="J6" s="55" t="s">
-        <v>1544</v>
+      <c r="J6" s="45" t="s">
+        <v>1536</v>
       </c>
       <c r="K6" s="30" t="s">
         <v>1429</v>
@@ -7772,7 +7566,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>1411</v>
@@ -7795,8 +7589,8 @@
       <c r="I7" s="20" t="s">
         <v>1420</v>
       </c>
-      <c r="J7" s="55" t="s">
-        <v>1544</v>
+      <c r="J7" s="45" t="s">
+        <v>1536</v>
       </c>
       <c r="K7" s="30" t="s">
         <v>1431</v>
@@ -7811,7 +7605,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>1411</v>
@@ -7834,8 +7628,8 @@
       <c r="I8" s="20" t="s">
         <v>1433</v>
       </c>
-      <c r="J8" s="55" t="s">
-        <v>1544</v>
+      <c r="J8" s="45" t="s">
+        <v>1536</v>
       </c>
       <c r="K8" s="30" t="s">
         <v>1434</v>
@@ -7850,7 +7644,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>1411</v>
@@ -7873,8 +7667,8 @@
       <c r="I9" s="23" t="s">
         <v>1443</v>
       </c>
-      <c r="J9" s="55" t="s">
-        <v>1543</v>
+      <c r="J9" s="45" t="s">
+        <v>1535</v>
       </c>
       <c r="K9" s="30" t="s">
         <v>1444</v>
@@ -7889,7 +7683,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>1411</v>
@@ -7912,8 +7706,8 @@
       <c r="I10" s="23" t="s">
         <v>1436</v>
       </c>
-      <c r="J10" s="55" t="s">
-        <v>1543</v>
+      <c r="J10" s="45" t="s">
+        <v>1535</v>
       </c>
       <c r="K10" s="30" t="s">
         <v>1446</v>
@@ -7928,7 +7722,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>1411</v>
@@ -7951,8 +7745,8 @@
       <c r="I11" s="23" t="s">
         <v>1437</v>
       </c>
-      <c r="J11" s="55" t="s">
-        <v>1543</v>
+      <c r="J11" s="45" t="s">
+        <v>1535</v>
       </c>
       <c r="K11" s="30" t="s">
         <v>1448</v>
@@ -7967,7 +7761,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>1411</v>
@@ -7990,8 +7784,8 @@
       <c r="I12" s="23" t="s">
         <v>1438</v>
       </c>
-      <c r="J12" s="55" t="s">
-        <v>1543</v>
+      <c r="J12" s="45" t="s">
+        <v>1535</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>1450</v>
@@ -8006,7 +7800,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>1411</v>
@@ -8029,8 +7823,8 @@
       <c r="I13" s="23" t="s">
         <v>1439</v>
       </c>
-      <c r="J13" s="55" t="s">
-        <v>1543</v>
+      <c r="J13" s="45" t="s">
+        <v>1535</v>
       </c>
       <c r="K13" s="30" t="s">
         <v>1452</v>
@@ -8045,7 +7839,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>1411</v>
@@ -8068,8 +7862,8 @@
       <c r="I14" s="23" t="s">
         <v>1440</v>
       </c>
-      <c r="J14" s="55" t="s">
-        <v>1543</v>
+      <c r="J14" s="45" t="s">
+        <v>1535</v>
       </c>
       <c r="K14" s="30" t="s">
         <v>1454</v>
@@ -8084,7 +7878,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>1411</v>
@@ -8107,8 +7901,8 @@
       <c r="I15" s="21" t="s">
         <v>1459</v>
       </c>
-      <c r="J15" s="55" t="s">
-        <v>1542</v>
+      <c r="J15" s="45" t="s">
+        <v>1534</v>
       </c>
       <c r="K15" s="30" t="s">
         <v>1464</v>
@@ -8123,7 +7917,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>1411</v>
@@ -8146,8 +7940,8 @@
       <c r="I16" s="21" t="s">
         <v>1460</v>
       </c>
-      <c r="J16" s="55" t="s">
-        <v>1542</v>
+      <c r="J16" s="45" t="s">
+        <v>1534</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>1466</v>
@@ -8162,7 +7956,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>1411</v>
@@ -8185,8 +7979,8 @@
       <c r="I17" s="21" t="s">
         <v>1461</v>
       </c>
-      <c r="J17" s="55" t="s">
-        <v>1542</v>
+      <c r="J17" s="45" t="s">
+        <v>1534</v>
       </c>
       <c r="K17" s="30" t="s">
         <v>1468</v>
@@ -8201,7 +7995,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>1411</v>
@@ -8222,10 +8016,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>1540</v>
-      </c>
-      <c r="J18" s="55" t="s">
-        <v>1542</v>
+        <v>1532</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>1534</v>
       </c>
       <c r="K18" s="30" t="s">
         <v>1470</v>
@@ -8240,7 +8034,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>1411</v>
@@ -8263,8 +8057,8 @@
       <c r="I19" s="21" t="s">
         <v>1472</v>
       </c>
-      <c r="J19" s="55" t="s">
-        <v>1542</v>
+      <c r="J19" s="45" t="s">
+        <v>1534</v>
       </c>
       <c r="K19" s="30" t="s">
         <v>1474</v>
@@ -8279,7 +8073,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>1411</v>
@@ -8302,8 +8096,8 @@
       <c r="I20" s="21" t="s">
         <v>1462</v>
       </c>
-      <c r="J20" s="55" t="s">
-        <v>1542</v>
+      <c r="J20" s="45" t="s">
+        <v>1534</v>
       </c>
       <c r="K20" s="30" t="s">
         <v>1475</v>
@@ -8318,7 +8112,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>1411</v>
@@ -8327,7 +8121,7 @@
         <v>1442</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F21" s="16">
         <v>1</v>
@@ -8341,8 +8135,8 @@
       <c r="I21" s="21" t="s">
         <v>1480</v>
       </c>
-      <c r="J21" s="55" t="s">
-        <v>1541</v>
+      <c r="J21" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K21" s="30" t="s">
         <v>1478</v>
@@ -8357,7 +8151,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>1411</v>
@@ -8366,7 +8160,7 @@
         <v>1442</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F22" s="16">
         <v>2</v>
@@ -8380,8 +8174,8 @@
       <c r="I22" s="21" t="s">
         <v>1477</v>
       </c>
-      <c r="J22" s="55" t="s">
-        <v>1541</v>
+      <c r="J22" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K22" s="30" t="s">
         <v>1481</v>
@@ -8396,7 +8190,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>1411</v>
@@ -8405,7 +8199,7 @@
         <v>1442</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F23" s="16">
         <v>3</v>
@@ -8419,8 +8213,8 @@
       <c r="I23" s="21" t="s">
         <v>1486</v>
       </c>
-      <c r="J23" s="55" t="s">
-        <v>1541</v>
+      <c r="J23" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K23" s="30" t="s">
         <v>1487</v>
@@ -8435,7 +8229,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>1411</v>
@@ -8444,7 +8238,7 @@
         <v>1442</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="F24" s="16">
         <v>4</v>
@@ -8458,8 +8252,8 @@
       <c r="I24" s="20" t="s">
         <v>1484</v>
       </c>
-      <c r="J24" s="55" t="s">
-        <v>1541</v>
+      <c r="J24" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K24" s="30" t="s">
         <v>1488</v>
@@ -8474,7 +8268,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>1411</v>
@@ -8483,7 +8277,7 @@
         <v>1442</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="F25" s="16">
         <v>5</v>
@@ -8497,8 +8291,8 @@
       <c r="I25" s="20" t="s">
         <v>1485</v>
       </c>
-      <c r="J25" s="55" t="s">
-        <v>1541</v>
+      <c r="J25" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K25" s="30" t="s">
         <v>1490</v>
@@ -8513,7 +8307,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>1411</v>
@@ -8522,7 +8316,7 @@
         <v>1442</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="F26" s="16">
         <v>6</v>
@@ -8536,8 +8330,8 @@
       <c r="I26" s="20" t="s">
         <v>1494</v>
       </c>
-      <c r="J26" s="55" t="s">
-        <v>1541</v>
+      <c r="J26" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K26" s="30" t="s">
         <v>1495</v>
@@ -8552,7 +8346,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>1411</v>
@@ -8561,7 +8355,7 @@
         <v>1442</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="F27" s="16">
         <v>7</v>
@@ -8575,8 +8369,8 @@
       <c r="I27" s="20" t="s">
         <v>1493</v>
       </c>
-      <c r="J27" s="55" t="s">
-        <v>1541</v>
+      <c r="J27" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K27" s="30" t="s">
         <v>1498</v>
@@ -8591,7 +8385,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>1411</v>
@@ -8600,7 +8394,7 @@
         <v>1442</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="F28" s="16">
         <v>8</v>
@@ -8614,8 +8408,8 @@
       <c r="I28" s="20" t="s">
         <v>1497</v>
       </c>
-      <c r="J28" s="55" t="s">
-        <v>1541</v>
+      <c r="J28" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K28" s="30" t="s">
         <v>1500</v>
@@ -8630,7 +8424,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>1411</v>
@@ -8639,7 +8433,7 @@
         <v>1442</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="F29" s="16">
         <v>9</v>
@@ -8653,8 +8447,8 @@
       <c r="I29" s="20" t="s">
         <v>1492</v>
       </c>
-      <c r="J29" s="55" t="s">
-        <v>1541</v>
+      <c r="J29" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K29" s="30" t="s">
         <v>1502</v>
@@ -8669,7 +8463,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>1411</v>
@@ -8678,7 +8472,7 @@
         <v>1442</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>1536</v>
+        <v>1541</v>
       </c>
       <c r="F30" s="16">
         <v>10</v>
@@ -8692,8 +8486,8 @@
       <c r="I30" s="20" t="s">
         <v>1504</v>
       </c>
-      <c r="J30" s="55" t="s">
-        <v>1541</v>
+      <c r="J30" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K30" s="30" t="s">
         <v>1507</v>
@@ -8708,7 +8502,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>1411</v>
@@ -8717,7 +8511,7 @@
         <v>1442</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>1536</v>
+        <v>1541</v>
       </c>
       <c r="F31" s="16">
         <v>11</v>
@@ -8731,8 +8525,8 @@
       <c r="I31" s="20" t="s">
         <v>1506</v>
       </c>
-      <c r="J31" s="55" t="s">
-        <v>1541</v>
+      <c r="J31" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K31" s="31" t="s">
         <v>1509</v>
@@ -8747,7 +8541,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>1411</v>
@@ -8756,7 +8550,7 @@
         <v>1442</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>1536</v>
+        <v>1541</v>
       </c>
       <c r="F32" s="16">
         <v>12</v>
@@ -8770,8 +8564,8 @@
       <c r="I32" s="20" t="s">
         <v>1505</v>
       </c>
-      <c r="J32" s="55" t="s">
-        <v>1541</v>
+      <c r="J32" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K32" s="31" t="s">
         <v>1511</v>
@@ -8786,7 +8580,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>1411</v>
@@ -8795,7 +8589,7 @@
         <v>1442</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>1535</v>
+        <v>1542</v>
       </c>
       <c r="F33" s="16">
         <v>13</v>
@@ -8809,8 +8603,8 @@
       <c r="I33" s="20" t="s">
         <v>1513</v>
       </c>
-      <c r="J33" s="55" t="s">
-        <v>1541</v>
+      <c r="J33" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K33" s="31" t="s">
         <v>1516</v>
@@ -8825,7 +8619,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>1411</v>
@@ -8834,7 +8628,7 @@
         <v>1442</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="F34" s="16">
         <v>14</v>
@@ -8848,8 +8642,8 @@
       <c r="I34" s="20" t="s">
         <v>1514</v>
       </c>
-      <c r="J34" s="55" t="s">
-        <v>1541</v>
+      <c r="J34" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K34" s="30" t="s">
         <v>1518</v>
@@ -8864,7 +8658,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>1411</v>
@@ -8873,7 +8667,7 @@
         <v>1442</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="F35" s="16">
         <v>15</v>
@@ -8887,8 +8681,8 @@
       <c r="I35" s="20" t="s">
         <v>1515</v>
       </c>
-      <c r="J35" s="55" t="s">
-        <v>1541</v>
+      <c r="J35" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K35" s="30" t="s">
         <v>1522</v>
@@ -8903,7 +8697,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>1411</v>
@@ -8912,7 +8706,7 @@
         <v>1442</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>1533</v>
+        <v>1544</v>
       </c>
       <c r="F36" s="16">
         <v>16</v>
@@ -8926,8 +8720,8 @@
       <c r="I36" s="20" t="s">
         <v>1521</v>
       </c>
-      <c r="J36" s="55" t="s">
-        <v>1541</v>
+      <c r="J36" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K36" s="30" t="s">
         <v>1523</v>
@@ -8942,7 +8736,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>1411</v>
@@ -8951,7 +8745,7 @@
         <v>1442</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>1532</v>
+        <v>1545</v>
       </c>
       <c r="F37" s="16">
         <v>17</v>
@@ -8965,8 +8759,8 @@
       <c r="I37" s="20" t="s">
         <v>1525</v>
       </c>
-      <c r="J37" s="55" t="s">
-        <v>1541</v>
+      <c r="J37" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K37" s="30" t="s">
         <v>1527</v>
@@ -8981,7 +8775,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>1411</v>
@@ -8990,7 +8784,7 @@
         <v>1442</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>1532</v>
+        <v>1545</v>
       </c>
       <c r="F38" s="16">
         <v>18</v>
@@ -9004,8 +8798,8 @@
       <c r="I38" s="20" t="s">
         <v>1526</v>
       </c>
-      <c r="J38" s="55" t="s">
-        <v>1541</v>
+      <c r="J38" s="45" t="s">
+        <v>1533</v>
       </c>
       <c r="K38" s="30" t="s">
         <v>1529</v>
@@ -16424,17 +16218,17 @@
     <filterColumn colId="11"/>
   </autoFilter>
   <conditionalFormatting sqref="B36:D37 J31:M33 E9:I14 B38 J34:J35 J37:J38">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="8">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:I538 B39:D512 J39:M512 B3:M38">
-    <cfRule type="expression" dxfId="35" priority="23">
+    <cfRule type="expression" dxfId="7" priority="23">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:I538 B39:D512 J39:M512 B3:M38">
-    <cfRule type="expression" dxfId="34" priority="24">
+    <cfRule type="expression" dxfId="6" priority="24">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18578,12 +18372,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$Y78=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$Y78=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43840,18 +43634,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/KS4/Year-11-12.xlsx
+++ b/KS4/Year-11-12.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5572" uniqueCount="1546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5572" uniqueCount="1545">
   <si>
     <t>Teach Computing Curriculum Map</t>
   </si>
@@ -5099,9 +5099,6 @@
   </si>
   <si>
     <t>I can design the program for a challenging project using flowchart or pseudocode                                                                                                              I can create the solution for the battle boats program                                                                                                                     I can perform final testing of the solution to a challenging problem                                                                                                  I can evaluate a challenging program</t>
-  </si>
-  <si>
-    <t>Twelve</t>
   </si>
   <si>
     <t>Create a class                                                                                                                                                                        Create a method on a class                                                                                                                                                    Define the use of a 'self' parameter in object-oriented Python or Javascript                                                                                             Create a subclass in a program</t>
@@ -5581,55 +5578,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5698,7 +5647,7 @@
         <xdr:cNvPr id="2" name="image10.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5732,7 +5681,7 @@
         <xdr:cNvPr id="3" name="image12.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5766,7 +5715,7 @@
         <xdr:cNvPr id="4" name="image7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7332,8 +7281,8 @@
   <dimension ref="A1:M538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -7410,7 +7359,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>1411</v>
@@ -7434,7 +7383,7 @@
         <v>1066</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="K3" s="30" t="s">
         <v>1423</v>
@@ -7449,7 +7398,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>1411</v>
@@ -7473,7 +7422,7 @@
         <v>1069</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>1425</v>
@@ -7488,7 +7437,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>1411</v>
@@ -7512,7 +7461,7 @@
         <v>1071</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="K5" s="30" t="s">
         <v>1427</v>
@@ -7527,7 +7476,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>1411</v>
@@ -7551,7 +7500,7 @@
         <v>1419</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="K6" s="30" t="s">
         <v>1429</v>
@@ -7566,7 +7515,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>1411</v>
@@ -7590,7 +7539,7 @@
         <v>1420</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="K7" s="30" t="s">
         <v>1431</v>
@@ -7605,7 +7554,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>1411</v>
@@ -7629,7 +7578,7 @@
         <v>1433</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="K8" s="30" t="s">
         <v>1434</v>
@@ -7644,7 +7593,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>1411</v>
@@ -7668,7 +7617,7 @@
         <v>1443</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="K9" s="30" t="s">
         <v>1444</v>
@@ -7683,7 +7632,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>1411</v>
@@ -7707,7 +7656,7 @@
         <v>1436</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="K10" s="30" t="s">
         <v>1446</v>
@@ -7722,7 +7671,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>1411</v>
@@ -7746,7 +7695,7 @@
         <v>1437</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="K11" s="30" t="s">
         <v>1448</v>
@@ -7761,7 +7710,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>1411</v>
@@ -7785,7 +7734,7 @@
         <v>1438</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>1450</v>
@@ -7800,7 +7749,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>1411</v>
@@ -7824,7 +7773,7 @@
         <v>1439</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="K13" s="30" t="s">
         <v>1452</v>
@@ -7839,7 +7788,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>1411</v>
@@ -7863,7 +7812,7 @@
         <v>1440</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="K14" s="30" t="s">
         <v>1454</v>
@@ -7878,7 +7827,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>1411</v>
@@ -7902,7 +7851,7 @@
         <v>1459</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="K15" s="30" t="s">
         <v>1464</v>
@@ -7917,7 +7866,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>1411</v>
@@ -7941,7 +7890,7 @@
         <v>1460</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>1466</v>
@@ -7956,7 +7905,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>1411</v>
@@ -7980,7 +7929,7 @@
         <v>1461</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="K17" s="30" t="s">
         <v>1468</v>
@@ -7995,7 +7944,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>1411</v>
@@ -8016,10 +7965,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="K18" s="30" t="s">
         <v>1470</v>
@@ -8034,7 +7983,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>1411</v>
@@ -8058,7 +8007,7 @@
         <v>1472</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="K19" s="30" t="s">
         <v>1474</v>
@@ -8073,7 +8022,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>1411</v>
@@ -8097,7 +8046,7 @@
         <v>1462</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="K20" s="30" t="s">
         <v>1475</v>
@@ -8112,7 +8061,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>1411</v>
@@ -8121,7 +8070,7 @@
         <v>1442</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F21" s="16">
         <v>1</v>
@@ -8136,7 +8085,7 @@
         <v>1480</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K21" s="30" t="s">
         <v>1478</v>
@@ -8151,7 +8100,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>1411</v>
@@ -8160,7 +8109,7 @@
         <v>1442</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F22" s="16">
         <v>2</v>
@@ -8175,7 +8124,7 @@
         <v>1477</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K22" s="30" t="s">
         <v>1481</v>
@@ -8190,7 +8139,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>1411</v>
@@ -8199,7 +8148,7 @@
         <v>1442</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F23" s="16">
         <v>3</v>
@@ -8214,7 +8163,7 @@
         <v>1486</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K23" s="30" t="s">
         <v>1487</v>
@@ -8229,7 +8178,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>1411</v>
@@ -8238,7 +8187,7 @@
         <v>1442</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F24" s="16">
         <v>4</v>
@@ -8253,7 +8202,7 @@
         <v>1484</v>
       </c>
       <c r="J24" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K24" s="30" t="s">
         <v>1488</v>
@@ -8268,7 +8217,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>1411</v>
@@ -8277,7 +8226,7 @@
         <v>1442</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F25" s="16">
         <v>5</v>
@@ -8292,7 +8241,7 @@
         <v>1485</v>
       </c>
       <c r="J25" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K25" s="30" t="s">
         <v>1490</v>
@@ -8307,7 +8256,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>1411</v>
@@ -8316,7 +8265,7 @@
         <v>1442</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F26" s="16">
         <v>6</v>
@@ -8331,7 +8280,7 @@
         <v>1494</v>
       </c>
       <c r="J26" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K26" s="30" t="s">
         <v>1495</v>
@@ -8346,7 +8295,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>1411</v>
@@ -8355,7 +8304,7 @@
         <v>1442</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F27" s="16">
         <v>7</v>
@@ -8370,7 +8319,7 @@
         <v>1493</v>
       </c>
       <c r="J27" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K27" s="30" t="s">
         <v>1498</v>
@@ -8385,7 +8334,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>1411</v>
@@ -8394,7 +8343,7 @@
         <v>1442</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F28" s="16">
         <v>8</v>
@@ -8409,7 +8358,7 @@
         <v>1497</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K28" s="30" t="s">
         <v>1500</v>
@@ -8424,7 +8373,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>1411</v>
@@ -8433,7 +8382,7 @@
         <v>1442</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F29" s="16">
         <v>9</v>
@@ -8448,7 +8397,7 @@
         <v>1492</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K29" s="30" t="s">
         <v>1502</v>
@@ -8463,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>1411</v>
@@ -8472,7 +8421,7 @@
         <v>1442</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F30" s="16">
         <v>10</v>
@@ -8487,7 +8436,7 @@
         <v>1504</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K30" s="30" t="s">
         <v>1507</v>
@@ -8502,7 +8451,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>1411</v>
@@ -8511,7 +8460,7 @@
         <v>1442</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F31" s="16">
         <v>11</v>
@@ -8526,7 +8475,7 @@
         <v>1506</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K31" s="31" t="s">
         <v>1509</v>
@@ -8541,7 +8490,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>1411</v>
@@ -8550,7 +8499,7 @@
         <v>1442</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F32" s="16">
         <v>12</v>
@@ -8565,7 +8514,7 @@
         <v>1505</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K32" s="31" t="s">
         <v>1511</v>
@@ -8580,7 +8529,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>1411</v>
@@ -8589,7 +8538,7 @@
         <v>1442</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F33" s="16">
         <v>13</v>
@@ -8604,7 +8553,7 @@
         <v>1513</v>
       </c>
       <c r="J33" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K33" s="31" t="s">
         <v>1516</v>
@@ -8619,7 +8568,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>1411</v>
@@ -8628,7 +8577,7 @@
         <v>1442</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F34" s="16">
         <v>14</v>
@@ -8643,7 +8592,7 @@
         <v>1514</v>
       </c>
       <c r="J34" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K34" s="30" t="s">
         <v>1518</v>
@@ -8658,7 +8607,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>1411</v>
@@ -8667,7 +8616,7 @@
         <v>1442</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F35" s="16">
         <v>15</v>
@@ -8682,7 +8631,7 @@
         <v>1515</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K35" s="30" t="s">
         <v>1522</v>
@@ -8697,7 +8646,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>1411</v>
@@ -8706,7 +8655,7 @@
         <v>1442</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F36" s="16">
         <v>16</v>
@@ -8721,7 +8670,7 @@
         <v>1521</v>
       </c>
       <c r="J36" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K36" s="30" t="s">
         <v>1523</v>
@@ -8736,7 +8685,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>1411</v>
@@ -8745,7 +8694,7 @@
         <v>1442</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F37" s="16">
         <v>17</v>
@@ -8760,7 +8709,7 @@
         <v>1525</v>
       </c>
       <c r="J37" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K37" s="30" t="s">
         <v>1527</v>
@@ -8775,7 +8724,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>1411</v>
@@ -8784,7 +8733,7 @@
         <v>1442</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F38" s="16">
         <v>18</v>
@@ -8799,7 +8748,7 @@
         <v>1526</v>
       </c>
       <c r="J38" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K38" s="30" t="s">
         <v>1529</v>
@@ -16218,17 +16167,17 @@
     <filterColumn colId="11"/>
   </autoFilter>
   <conditionalFormatting sqref="B36:D37 J31:M33 E9:I14 B38 J34:J35 J37:J38">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="8">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:I538 B39:D512 J39:M512 B3:M38">
-    <cfRule type="expression" dxfId="7" priority="23">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:I538 B39:D512 J39:M512 B3:M38">
-    <cfRule type="expression" dxfId="6" priority="24">
+    <cfRule type="expression" dxfId="0" priority="24">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18372,12 +18321,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$Y78=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$Y78=0</formula>
     </cfRule>
   </conditionalFormatting>
